--- a/talk_theme.xlsx
+++ b/talk_theme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34d7c592a880106c/ドキュメント/GLOBIS/01_セクション活動/GMAP/GMAPアプリ/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{228C4179-BF24-485E-8713-4E3724AD8622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5643A363-9C07-4D2E-B217-B65CADFE248C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{228C4179-BF24-485E-8713-4E3724AD8622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E08FD27-16D4-433F-BDBA-859CD834E0CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50CFC05E-A4C1-4FFA-A5C7-BA6F61B2AE50}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>トークテーマ一覧</t>
     <rPh sb="6" eb="8">
@@ -267,6 +267,45 @@
     <rPh sb="14" eb="15">
       <t>オシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人生で一番のサプライズ体験は？</t>
+  </si>
+  <si>
+    <t>志（こころざし）のエピソードを語って</t>
+  </si>
+  <si>
+    <t>グロービスで一番力をいれたいことは？</t>
+  </si>
+  <si>
+    <t>最近笑った話</t>
+  </si>
+  <si>
+    <t>今までに心がときめいた瞬間は？</t>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かため</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリカタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふつう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やわらかめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリやわ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +426,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,6 +446,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,149 +749,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BDC12-D9E7-4CAA-A1B9-696112474437}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="75.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
